--- a/data/trans_orig/P16B05-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B05-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99C7BF51-257D-417C-B70D-1F462CC4607B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB007A12-7A07-4762-81E3-9A87FDD0BF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2AF6A339-59EF-464D-AA38-6CB37A061A4D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{357C18BB-A9A6-4213-A2FE-B529902CB379}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -76,7 +76,7 @@
     <t>72,17%</t>
   </si>
   <si>
-    <t>28,78%</t>
+    <t>29,31%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -91,7 +91,7 @@
     <t>92,89%</t>
   </si>
   <si>
-    <t>78,08%</t>
+    <t>76,83%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,7 +103,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>71,22%</t>
+    <t>70,69%</t>
   </si>
   <si>
     <t>0%</t>
@@ -115,7 +115,7 @@
     <t>7,11%</t>
   </si>
   <si>
-    <t>21,92%</t>
+    <t>23,17%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -169,13 +169,13 @@
     <t>92,56%</t>
   </si>
   <si>
-    <t>64,51%</t>
+    <t>70,44%</t>
   </si>
   <si>
     <t>80,24%</t>
   </si>
   <si>
-    <t>55,23%</t>
+    <t>54,96%</t>
   </si>
   <si>
     <t>94,24%</t>
@@ -187,7 +187,7 @@
     <t>7,44%</t>
   </si>
   <si>
-    <t>35,49%</t>
+    <t>29,56%</t>
   </si>
   <si>
     <t>19,76%</t>
@@ -196,7 +196,7 @@
     <t>5,76%</t>
   </si>
   <si>
-    <t>44,77%</t>
+    <t>45,04%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -226,37 +226,37 @@
     <t>93,87%</t>
   </si>
   <si>
-    <t>73,48%</t>
+    <t>73,41%</t>
   </si>
   <si>
     <t>97,22%</t>
   </si>
   <si>
-    <t>84,68%</t>
+    <t>84,13%</t>
   </si>
   <si>
     <t>96,08%</t>
   </si>
   <si>
-    <t>87,93%</t>
+    <t>87,73%</t>
   </si>
   <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>26,52%</t>
+    <t>26,59%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>15,32%</t>
+    <t>15,87%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>12,07%</t>
+    <t>12,27%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -265,406 +265,412 @@
     <t>90,96%</t>
   </si>
   <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentajes de tranquilizantes recetados en 2012 (Tasa respuesta: 5,06%)</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>Porcentajes de tranquilizantes recetados en 2015 (Tasa respuesta: 5,42%)</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
     <t>80,27%</t>
   </si>
   <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
   </si>
   <si>
     <t>19,73%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentajes de tranquilizantes recetados en 2012 (Tasa respuesta: 5,06%)</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>Porcentajes de tranquilizantes recetados en 2015 (Tasa respuesta: 5,42%)</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
   </si>
   <si>
     <t>4,44%</t>
@@ -673,88 +679,82 @@
     <t>6,03%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>90,42%</t>
+    <t>92,7%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>93,44%</t>
+    <t>94,68%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>9,58%</t>
+    <t>7,3%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>6,56%</t>
+    <t>5,32%</t>
   </si>
   <si>
     <t>95,54%</t>
   </si>
   <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
   <si>
     <t>97,28%</t>
   </si>
   <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>98,67%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
+    <t>1,33%</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146E8FEA-0F47-4C96-BAA3-08AE97158E1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F726EC3-C36D-4702-8BB8-330C92169A7A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2691,7 +2691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEA7A60-F97D-4DE2-9349-A91DE4DF5542}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D54CC24-143D-4FC9-943C-CAC72D874E90}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3292,10 +3292,10 @@
         <v>85589</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3313,13 +3313,13 @@
         <v>1024</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3328,13 +3328,13 @@
         <v>935</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3343,13 +3343,13 @@
         <v>1959</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,7 +3450,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -3504,7 +3504,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,7 +3575,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -3590,7 +3590,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -3605,7 +3605,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -3629,7 +3629,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3644,7 +3644,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3659,7 +3659,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,7 +3745,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -3760,7 +3760,7 @@
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>15</v>
@@ -3799,7 +3799,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3814,7 +3814,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,10 +3897,10 @@
         <v>57744</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -3912,10 +3912,10 @@
         <v>78952</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -3948,13 +3948,13 @@
         <v>969</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3963,13 +3963,13 @@
         <v>969</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,10 +4037,10 @@
         <v>111894</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -4052,10 +4052,10 @@
         <v>248728</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -4067,13 +4067,13 @@
         <v>360623</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4088,13 @@
         <v>1024</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4103,13 +4103,13 @@
         <v>1904</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -4118,13 +4118,13 @@
         <v>2928</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>161</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,7 +4204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0A550F-DF44-4102-9098-78C51B2E72B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771C1D54-F0A6-4654-9666-1ED5CA88A87D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4519,7 +4519,7 @@
         <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>79</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,7 +4540,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4549,13 +4549,13 @@
         <v>3092</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -4564,13 +4564,13 @@
         <v>3092</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,7 +4641,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -4656,7 +4656,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -4671,7 +4671,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -4695,7 +4695,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,7 +4811,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -4850,7 +4850,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4865,7 +4865,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4880,7 +4880,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,10 +4963,10 @@
         <v>27754</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -4978,10 +4978,10 @@
         <v>37175</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -5014,13 +5014,13 @@
         <v>954</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -5029,7 +5029,7 @@
         <v>954</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
@@ -5121,7 +5121,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -5175,7 +5175,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5258,13 +5258,13 @@
         <v>17435</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -5276,7 +5276,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -5288,13 +5288,13 @@
         <v>66790</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,13 +5309,13 @@
         <v>4286</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5330,7 +5330,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -5339,13 +5339,13 @@
         <v>4286</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5416,7 +5416,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>15</v>
@@ -5428,10 +5428,10 @@
         <v>68053</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -5443,10 +5443,10 @@
         <v>93239</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5470,7 +5470,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5479,13 +5479,13 @@
         <v>1211</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5494,13 +5494,13 @@
         <v>1211</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,13 +5568,13 @@
         <v>111780</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H28" s="7">
         <v>239</v>
@@ -5583,28 +5583,28 @@
         <v>263471</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M28" s="7">
         <v>346</v>
       </c>
       <c r="N28" s="7">
-        <v>375250</v>
+        <v>375251</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>228</v>
+        <v>107</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,13 +5619,13 @@
         <v>5217</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -5634,13 +5634,13 @@
         <v>5257</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -5649,13 +5649,13 @@
         <v>10474</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>238</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,7 +5697,7 @@
         <v>356</v>
       </c>
       <c r="N30" s="7">
-        <v>385724</v>
+        <v>385725</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>15</v>

--- a/data/trans_orig/P16B05-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B05-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB007A12-7A07-4762-81E3-9A87FDD0BF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E6CEAEA-8E5E-4A8A-AC0C-62953CD627C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{357C18BB-A9A6-4213-A2FE-B529902CB379}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0ABA4DC3-B9F3-4FFD-BA1D-E484368D5628}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="245">
   <si>
     <t>Porcentajes de tranquilizantes recetados en 2007 (Tasa respuesta: 3,95%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>72,17%</t>
   </si>
   <si>
-    <t>29,31%</t>
+    <t>28,85%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -91,7 +91,7 @@
     <t>92,89%</t>
   </si>
   <si>
-    <t>76,83%</t>
+    <t>77,45%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,7 +103,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>70,69%</t>
+    <t>71,15%</t>
   </si>
   <si>
     <t>0%</t>
@@ -115,7 +115,7 @@
     <t>7,11%</t>
   </si>
   <si>
-    <t>23,17%</t>
+    <t>22,55%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -169,16 +169,16 @@
     <t>92,56%</t>
   </si>
   <si>
-    <t>70,44%</t>
+    <t>61,69%</t>
   </si>
   <si>
     <t>80,24%</t>
   </si>
   <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
   </si>
   <si>
     <t>59,41%</t>
@@ -187,16 +187,16 @@
     <t>7,44%</t>
   </si>
   <si>
-    <t>29,56%</t>
+    <t>38,31%</t>
   </si>
   <si>
     <t>19,76%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -211,13 +211,13 @@
     <t>78,42%</t>
   </si>
   <si>
-    <t>44,46%</t>
+    <t>44,4%</t>
   </si>
   <si>
     <t>21,58%</t>
   </si>
   <si>
-    <t>55,54%</t>
+    <t>55,6%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -226,37 +226,37 @@
     <t>93,87%</t>
   </si>
   <si>
-    <t>73,41%</t>
+    <t>67,98%</t>
   </si>
   <si>
     <t>97,22%</t>
   </si>
   <si>
-    <t>84,13%</t>
+    <t>87,4%</t>
   </si>
   <si>
     <t>96,08%</t>
   </si>
   <si>
-    <t>87,73%</t>
+    <t>87,93%</t>
   </si>
   <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>26,59%</t>
+    <t>32,02%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>15,87%</t>
+    <t>12,6%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>12,27%</t>
+    <t>12,07%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -265,376 +265,388 @@
     <t>90,96%</t>
   </si>
   <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>94,19%</t>
   </si>
   <si>
-    <t>86,9%</t>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentajes de tranquilizantes recetados en 2012 (Tasa respuesta: 5,06%)</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>98,01%</t>
   </si>
   <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
+    <t>Porcentajes de tranquilizantes recetados en 2016 (Tasa respuesta: 5,42%)</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
   </si>
   <si>
     <t>97,5%</t>
   </si>
   <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentajes de tranquilizantes recetados en 2012 (Tasa respuesta: 5,06%)</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>Porcentajes de tranquilizantes recetados en 2015 (Tasa respuesta: 5,42%)</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
+    <t>14,38%</t>
   </si>
   <si>
     <t>91,73%</t>
@@ -646,10 +658,10 @@
     <t>80,27%</t>
   </si>
   <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
   </si>
   <si>
     <t>95,56%</t>
@@ -658,19 +670,19 @@
     <t>93,97%</t>
   </si>
   <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>19,73%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
   </si>
   <si>
     <t>4,44%</t>
@@ -679,49 +691,49 @@
     <t>6,03%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>92,7%</t>
+    <t>91,24%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>94,68%</t>
+    <t>92,35%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>7,3%</t>
+    <t>8,76%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>5,32%</t>
+    <t>7,65%</t>
   </si>
   <si>
     <t>95,54%</t>
   </si>
   <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>95,74%</t>
+    <t>95,61%</t>
   </si>
   <si>
     <t>99,27%</t>
@@ -730,16 +742,19 @@
     <t>97,28%</t>
   </si>
   <si>
+    <t>95,3%</t>
+  </si>
+  <si>
     <t>98,67%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
   </si>
   <si>
     <t>1,96%</t>
@@ -748,13 +763,16 @@
     <t>0,73%</t>
   </si>
   <si>
-    <t>4,26%</t>
+    <t>4,39%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
     <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F726EC3-C36D-4702-8BB8-330C92169A7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339FA66D-1CF5-495E-B972-3B3DE915817A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2691,7 +2709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D54CC24-143D-4FC9-943C-CAC72D874E90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A98101-6BDC-44B1-8635-AB255B01345D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4070,10 +4088,10 @@
         <v>154</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4106,13 @@
         <v>1024</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4103,13 +4121,13 @@
         <v>1904</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -4118,13 +4136,13 @@
         <v>2928</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,7 +4222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771C1D54-F0A6-4654-9666-1ED5CA88A87D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94FBE102-DF64-4E19-B80C-2763997B7C39}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4221,7 +4239,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4328,10 +4346,10 @@
         <v>9650</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -4358,10 +4376,10 @@
         <v>28225</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -4379,13 +4397,13 @@
         <v>930</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4409,13 +4427,13 @@
         <v>930</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,7 +4504,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -4498,13 +4516,13 @@
         <v>32979</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -4513,13 +4531,13 @@
         <v>49053</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,7 +4558,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4549,13 +4567,13 @@
         <v>3092</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -4564,13 +4582,13 @@
         <v>3092</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,7 +4659,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -4656,7 +4674,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -4671,7 +4689,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -4695,7 +4713,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4710,7 +4728,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4725,7 +4743,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,7 +4814,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -4811,7 +4829,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -4850,7 +4868,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4865,7 +4883,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4963,10 +4981,10 @@
         <v>27754</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -4978,10 +4996,10 @@
         <v>37175</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -5014,13 +5032,13 @@
         <v>954</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -5029,13 +5047,13 @@
         <v>954</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,7 +5154,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -5190,7 +5208,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,13 +5276,13 @@
         <v>17435</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -5276,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -5288,13 +5306,13 @@
         <v>66790</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,13 +5327,13 @@
         <v>4286</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5330,7 +5348,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -5339,13 +5357,13 @@
         <v>4286</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,10 +5446,10 @@
         <v>68053</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -5443,10 +5461,10 @@
         <v>93239</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5479,13 +5497,13 @@
         <v>1211</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5494,13 +5512,13 @@
         <v>1211</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,13 +5586,13 @@
         <v>111780</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H28" s="7">
         <v>239</v>
@@ -5583,13 +5601,13 @@
         <v>263471</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M28" s="7">
         <v>346</v>
@@ -5598,13 +5616,13 @@
         <v>375251</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>107</v>
+        <v>234</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,13 +5637,13 @@
         <v>5217</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -5634,13 +5652,13 @@
         <v>5257</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -5649,13 +5667,13 @@
         <v>10474</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>110</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B05-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B05-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E6CEAEA-8E5E-4A8A-AC0C-62953CD627C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAFD71ED-7490-4035-B3A6-225A6868F056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0ABA4DC3-B9F3-4FFD-BA1D-E484368D5628}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{46C979B7-B95C-4A39-9EE4-4C866DC49BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="239">
   <si>
     <t>Porcentajes de tranquilizantes recetados en 2007 (Tasa respuesta: 3,95%)</t>
   </si>
@@ -70,13 +70,13 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>72,17%</t>
   </si>
   <si>
-    <t>28,85%</t>
+    <t>28,78%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -91,7 +91,7 @@
     <t>92,89%</t>
   </si>
   <si>
-    <t>77,45%</t>
+    <t>78,08%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,7 +103,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>71,15%</t>
+    <t>71,22%</t>
   </si>
   <si>
     <t>0%</t>
@@ -115,7 +115,7 @@
     <t>7,11%</t>
   </si>
   <si>
-    <t>22,55%</t>
+    <t>21,92%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -169,16 +169,16 @@
     <t>92,56%</t>
   </si>
   <si>
-    <t>61,69%</t>
+    <t>64,51%</t>
   </si>
   <si>
     <t>80,24%</t>
   </si>
   <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
   </si>
   <si>
     <t>59,41%</t>
@@ -187,16 +187,16 @@
     <t>7,44%</t>
   </si>
   <si>
-    <t>38,31%</t>
+    <t>35,49%</t>
   </si>
   <si>
     <t>19,76%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -211,13 +211,13 @@
     <t>78,42%</t>
   </si>
   <si>
-    <t>44,4%</t>
+    <t>44,46%</t>
   </si>
   <si>
     <t>21,58%</t>
   </si>
   <si>
-    <t>55,6%</t>
+    <t>55,54%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -226,13 +226,13 @@
     <t>93,87%</t>
   </si>
   <si>
-    <t>67,98%</t>
+    <t>73,48%</t>
   </si>
   <si>
     <t>97,22%</t>
   </si>
   <si>
-    <t>87,4%</t>
+    <t>84,68%</t>
   </si>
   <si>
     <t>96,08%</t>
@@ -244,13 +244,13 @@
     <t>6,13%</t>
   </si>
   <si>
-    <t>32,02%</t>
+    <t>26,52%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>12,6%</t>
+    <t>15,32%</t>
   </si>
   <si>
     <t>3,92%</t>
@@ -265,91 +265,91 @@
     <t>90,96%</t>
   </si>
   <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
   </si>
   <si>
     <t>94,19%</t>
   </si>
   <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>9,04%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>94,78%</t>
   </si>
   <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>94,33%</t>
   </si>
   <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
   </si>
   <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -397,37 +397,31 @@
     <t>95,93%</t>
   </si>
   <si>
-    <t>77,91%</t>
+    <t>79,15%</t>
   </si>
   <si>
     <t>98,5%</t>
   </si>
   <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>22,09%</t>
+    <t>20,85%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
   </si>
   <si>
     <t>95,45%</t>
@@ -469,43 +463,43 @@
     <t>98,35%</t>
   </si>
   <si>
-    <t>91,67%</t>
+    <t>91,62%</t>
   </si>
   <si>
     <t>98,79%</t>
   </si>
   <si>
-    <t>95,03%</t>
+    <t>93,43%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>8,33%</t>
+    <t>8,38%</t>
   </si>
   <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>4,97%</t>
+    <t>6,57%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>94,86%</t>
+    <t>95,52%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>97,66%</t>
+    <t>97,34%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>98,01%</t>
+    <t>97,84%</t>
   </si>
   <si>
     <t>99,75%</t>
@@ -514,13 +508,13 @@
     <t>0,91%</t>
   </si>
   <si>
-    <t>5,14%</t>
+    <t>4,48%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,34%</t>
+    <t>2,66%</t>
   </si>
   <si>
     <t>0,81%</t>
@@ -529,7 +523,7 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,99%</t>
+    <t>2,16%</t>
   </si>
   <si>
     <t>Porcentajes de tranquilizantes recetados en 2016 (Tasa respuesta: 5,42%)</t>
@@ -538,25 +532,25 @@
     <t>91,21%</t>
   </si>
   <si>
-    <t>60,85%</t>
+    <t>60,54%</t>
   </si>
   <si>
     <t>96,81%</t>
   </si>
   <si>
-    <t>82,12%</t>
+    <t>86,06%</t>
   </si>
   <si>
     <t>8,79%</t>
   </si>
   <si>
-    <t>39,15%</t>
+    <t>39,46%</t>
   </si>
   <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>17,88%</t>
+    <t>13,94%</t>
   </si>
   <si>
     <t>88,17%</t>
@@ -565,7 +559,7 @@
     <t>91,43%</t>
   </si>
   <si>
-    <t>77,82%</t>
+    <t>76,32%</t>
   </si>
   <si>
     <t>97,31%</t>
@@ -574,10 +568,7 @@
     <t>94,07%</t>
   </si>
   <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
+    <t>84,32%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -589,16 +580,13 @@
     <t>2,69%</t>
   </si>
   <si>
-    <t>22,18%</t>
+    <t>23,68%</t>
   </si>
   <si>
     <t>5,93%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
+    <t>15,68%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -628,25 +616,25 @@
     <t>96,68%</t>
   </si>
   <si>
-    <t>82,68%</t>
+    <t>83,14%</t>
   </si>
   <si>
     <t>97,5%</t>
   </si>
   <si>
-    <t>85,62%</t>
+    <t>87,45%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>17,32%</t>
+    <t>16,86%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>14,38%</t>
+    <t>12,55%</t>
   </si>
   <si>
     <t>91,73%</t>
@@ -655,13 +643,10 @@
     <t>8,27%</t>
   </si>
   <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
   </si>
   <si>
     <t>95,56%</t>
@@ -670,19 +655,16 @@
     <t>93,97%</t>
   </si>
   <si>
-    <t>86,45%</t>
+    <t>85,95%</t>
   </si>
   <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
   </si>
   <si>
     <t>4,44%</t>
@@ -694,85 +676,85 @@
     <t>1,49%</t>
   </si>
   <si>
-    <t>13,55%</t>
+    <t>14,05%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>91,24%</t>
+    <t>90,42%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>92,35%</t>
+    <t>93,44%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>8,76%</t>
+    <t>9,58%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>7,65%</t>
+    <t>6,56%</t>
   </si>
   <si>
     <t>95,54%</t>
   </si>
   <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
   </si>
   <si>
     <t>97,28%</t>
   </si>
   <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339FA66D-1CF5-495E-B972-3B3DE915817A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69942C4-A665-4FF5-9F56-FB6CEECEC61A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2709,7 +2691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A98101-6BDC-44B1-8635-AB255B01345D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264CCB18-ACE8-4185-812B-AA386CD0871C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3310,10 +3292,10 @@
         <v>85589</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3331,13 +3313,13 @@
         <v>1024</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3346,13 +3328,13 @@
         <v>935</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3361,13 +3343,13 @@
         <v>1959</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,7 +3450,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -3522,7 +3504,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,7 +3575,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -3608,7 +3590,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -3623,7 +3605,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -3647,7 +3629,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3662,7 +3644,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3677,7 +3659,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,7 +3745,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -3778,7 +3760,7 @@
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>15</v>
@@ -3817,7 +3799,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3832,7 +3814,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,10 +3897,10 @@
         <v>57744</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -3930,10 +3912,10 @@
         <v>78952</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -3966,13 +3948,13 @@
         <v>969</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3981,13 +3963,13 @@
         <v>969</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,10 +4037,10 @@
         <v>111894</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -4070,10 +4052,10 @@
         <v>248728</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -4085,13 +4067,13 @@
         <v>360623</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4088,13 @@
         <v>1024</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4121,13 +4103,13 @@
         <v>1904</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -4136,13 +4118,13 @@
         <v>2928</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,7 +4204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94FBE102-DF64-4E19-B80C-2763997B7C39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D531B64-C281-4439-891B-C55B1324D2A1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4239,7 +4221,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4346,10 +4328,10 @@
         <v>9650</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -4376,10 +4358,10 @@
         <v>28225</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -4397,13 +4379,13 @@
         <v>930</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4427,13 +4409,13 @@
         <v>930</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,7 +4486,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -4516,13 +4498,13 @@
         <v>32979</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -4531,13 +4513,13 @@
         <v>49053</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>179</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,7 +4540,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4567,13 +4549,13 @@
         <v>3092</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -4582,13 +4564,13 @@
         <v>3092</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,7 +4641,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -4674,7 +4656,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -4689,7 +4671,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -4713,7 +4695,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4728,7 +4710,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4743,7 +4725,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,7 +4796,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -4829,7 +4811,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -4868,7 +4850,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4883,7 +4865,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4898,7 +4880,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,10 +4963,10 @@
         <v>27754</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -4996,10 +4978,10 @@
         <v>37175</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -5032,13 +5014,13 @@
         <v>954</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -5047,13 +5029,13 @@
         <v>954</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,7 +5121,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -5154,7 +5136,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -5193,7 +5175,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5208,7 +5190,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,13 +5258,13 @@
         <v>17435</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -5294,7 +5276,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -5306,13 +5288,13 @@
         <v>66790</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,13 +5309,13 @@
         <v>4286</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5348,7 +5330,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -5357,13 +5339,13 @@
         <v>4286</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,7 +5416,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>15</v>
@@ -5446,10 +5428,10 @@
         <v>68053</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -5461,10 +5443,10 @@
         <v>93239</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5488,7 +5470,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5497,13 +5479,13 @@
         <v>1211</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5512,13 +5494,13 @@
         <v>1211</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +5568,13 @@
         <v>111780</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H28" s="7">
         <v>239</v>
@@ -5601,28 +5583,28 @@
         <v>263471</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M28" s="7">
         <v>346</v>
       </c>
       <c r="N28" s="7">
-        <v>375251</v>
+        <v>375250</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,13 +5619,13 @@
         <v>5217</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -5652,13 +5634,13 @@
         <v>5257</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -5667,13 +5649,13 @@
         <v>10474</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,7 +5697,7 @@
         <v>356</v>
       </c>
       <c r="N30" s="7">
-        <v>385725</v>
+        <v>385724</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>15</v>

--- a/data/trans_orig/P16B05-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B05-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAFD71ED-7490-4035-B3A6-225A6868F056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{955078E7-E3DE-4E64-8337-F81FE91F55B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{46C979B7-B95C-4A39-9EE4-4C866DC49BD6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{704C13AC-84AB-480F-A2F6-5F68CD0D2148}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="247">
   <si>
     <t>Porcentajes de tranquilizantes recetados en 2007 (Tasa respuesta: 3,95%)</t>
   </si>
@@ -358,6 +358,36 @@
     <t>Porcentajes de tranquilizantes recetados en 2012 (Tasa respuesta: 5,06%)</t>
   </si>
   <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
     <t>86,51%</t>
   </si>
   <si>
@@ -394,223 +424,217 @@
     <t>9,99%</t>
   </si>
   <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>Porcentajes de tranquilizantes recetados en 2016 (Tasa respuesta: 5,42%)</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
     <t>95,93%</t>
   </si>
   <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
+    <t>5,96%</t>
   </si>
   <si>
     <t>4,07%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>Porcentajes de tranquilizantes recetados en 2016 (Tasa respuesta: 5,42%)</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
   </si>
   <si>
     <t>96,68%</t>
@@ -1166,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69942C4-A665-4FF5-9F56-FB6CEECEC61A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45AE84F-1F43-4C6C-ABE4-636E4977259E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2691,7 +2715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264CCB18-ACE8-4185-812B-AA386CD0871C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FFF4C9-9264-4305-A67A-70F3828F7B21}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2809,43 +2833,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="D4" s="7">
+        <v>15391</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="I4" s="7">
+        <v>22670</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="N4" s="7">
+        <v>38061</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,43 +2884,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1024</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1024</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,43 +2935,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D6" s="7">
+        <v>16415</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="I6" s="7">
+        <v>22670</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="N6" s="7">
+        <v>39085</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,7 +2997,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -2970,7 +3012,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -2985,7 +3027,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -3009,7 +3051,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3024,7 +3066,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3039,7 +3081,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,7 +3152,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -3125,7 +3167,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -3140,7 +3182,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -3164,7 +3206,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3179,7 +3221,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3194,7 +3236,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,46 +3298,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>24106</v>
+        <v>8715</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H13" s="7">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="I13" s="7">
-        <v>61483</v>
+        <v>38814</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N13" s="7">
-        <v>85589</v>
+        <v>47528</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3307,19 +3349,19 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3328,28 +3370,28 @@
         <v>935</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>1959</v>
+        <v>935</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,10 +3400,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D15" s="7">
-        <v>25130</v>
+        <v>8715</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -3373,10 +3415,10 @@
         <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I15" s="7">
-        <v>62418</v>
+        <v>39749</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>15</v>
@@ -3388,10 +3430,10 @@
         <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="N15" s="7">
-        <v>87548</v>
+        <v>48463</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
@@ -3420,7 +3462,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -3450,7 +3492,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -3474,7 +3516,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3504,7 +3546,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,7 +3617,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -3590,7 +3632,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -3605,7 +3647,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -3644,7 +3686,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3659,7 +3701,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,7 +3772,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>15</v>
@@ -3745,7 +3787,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -3760,7 +3802,7 @@
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>15</v>
@@ -3784,7 +3826,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3799,7 +3841,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3814,7 +3856,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,7 +3927,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>15</v>
@@ -3897,10 +3939,10 @@
         <v>57744</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -3912,10 +3954,10 @@
         <v>78952</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -3939,7 +3981,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3948,13 +3990,13 @@
         <v>969</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3963,13 +4005,13 @@
         <v>969</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,10 +4079,10 @@
         <v>111894</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -4052,10 +4094,10 @@
         <v>248728</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -4067,13 +4109,13 @@
         <v>360623</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4130,13 @@
         <v>1024</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4103,13 +4145,13 @@
         <v>1904</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -4118,13 +4160,13 @@
         <v>2928</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,7 +4246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D531B64-C281-4439-891B-C55B1324D2A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0115F431-0A53-45D4-BA9E-E05C4FB91064}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4221,7 +4263,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4328,10 +4370,10 @@
         <v>9650</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -4358,10 +4400,10 @@
         <v>28225</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -4379,13 +4421,13 @@
         <v>930</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4409,13 +4451,13 @@
         <v>930</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,7 +4528,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -4498,13 +4540,13 @@
         <v>32979</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -4513,10 +4555,10 @@
         <v>49053</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>79</v>
@@ -4540,7 +4582,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4549,13 +4591,13 @@
         <v>3092</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -4564,13 +4606,13 @@
         <v>3092</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>84</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,7 +4683,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -4656,7 +4698,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -4671,7 +4713,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -4695,7 +4737,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4710,7 +4752,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4725,7 +4767,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,7 +4838,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -4811,7 +4853,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -4826,7 +4868,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>15</v>
@@ -4850,7 +4892,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4865,7 +4907,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4880,7 +4922,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,7 +4993,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -4963,10 +5005,10 @@
         <v>27754</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -4978,10 +5020,10 @@
         <v>37175</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -5005,7 +5047,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -5014,13 +5056,13 @@
         <v>954</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -5029,13 +5071,13 @@
         <v>954</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,7 +5148,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -5121,7 +5163,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -5136,7 +5178,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -5160,7 +5202,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5175,7 +5217,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5190,7 +5232,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,10 +5303,10 @@
         <v>75</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -5276,7 +5318,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -5288,13 +5330,13 @@
         <v>66790</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,10 +5354,10 @@
         <v>82</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5330,7 +5372,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -5339,13 +5381,13 @@
         <v>4286</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5416,7 +5458,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>15</v>
@@ -5428,10 +5470,10 @@
         <v>68053</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -5443,10 +5485,10 @@
         <v>93239</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5470,7 +5512,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5479,13 +5521,13 @@
         <v>1211</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5494,13 +5536,13 @@
         <v>1211</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,13 +5610,13 @@
         <v>111780</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="H28" s="7">
         <v>239</v>
@@ -5583,28 +5625,28 @@
         <v>263471</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="M28" s="7">
         <v>346</v>
       </c>
       <c r="N28" s="7">
-        <v>375250</v>
+        <v>375251</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,13 +5661,13 @@
         <v>5217</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -5634,13 +5676,13 @@
         <v>5257</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -5649,13 +5691,13 @@
         <v>10474</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,7 +5739,7 @@
         <v>356</v>
       </c>
       <c r="N30" s="7">
-        <v>385724</v>
+        <v>385725</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>15</v>
